--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H2">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>60064.87540048943</v>
+        <v>60918.6279520294</v>
       </c>
       <c r="R2">
-        <v>60064.87540048943</v>
+        <v>548267.6515682645</v>
       </c>
       <c r="S2">
-        <v>0.2251943892278623</v>
+        <v>0.2229433542252175</v>
       </c>
       <c r="T2">
-        <v>0.2251943892278623</v>
+        <v>0.2229433542252175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H3">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>63935.54989491533</v>
+        <v>64210.49049830336</v>
       </c>
       <c r="R3">
-        <v>63935.54989491533</v>
+        <v>577894.4144847302</v>
       </c>
       <c r="S3">
-        <v>0.2397062678068196</v>
+        <v>0.2349905539469939</v>
       </c>
       <c r="T3">
-        <v>0.2397062678068196</v>
+        <v>0.2349905539469939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H4">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>41227.23946883305</v>
+        <v>41485.69813168218</v>
       </c>
       <c r="R4">
-        <v>41227.23946883305</v>
+        <v>373371.2831851396</v>
       </c>
       <c r="S4">
-        <v>0.1545685885441631</v>
+        <v>0.1518248359292529</v>
       </c>
       <c r="T4">
-        <v>0.1545685885441631</v>
+        <v>0.151824835929253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H5">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>31966.71383147915</v>
+        <v>32357.80790537444</v>
       </c>
       <c r="R5">
-        <v>31966.71383147915</v>
+        <v>291220.27114837</v>
       </c>
       <c r="S5">
-        <v>0.1198491555822514</v>
+        <v>0.1184195782524862</v>
       </c>
       <c r="T5">
-        <v>0.1198491555822514</v>
+        <v>0.1184195782524862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H6">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I6">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J6">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>21133.13336300967</v>
+        <v>22227.6667676191</v>
       </c>
       <c r="R6">
-        <v>21133.13336300967</v>
+        <v>200049.0009085719</v>
       </c>
       <c r="S6">
-        <v>0.07923204748902454</v>
+        <v>0.0813463919390246</v>
       </c>
       <c r="T6">
-        <v>0.07923204748902454</v>
+        <v>0.0813463919390246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H7">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>10566.86287842265</v>
+        <v>11411.53531549544</v>
       </c>
       <c r="R7">
-        <v>10566.86287842265</v>
+        <v>102703.8178394589</v>
       </c>
       <c r="S7">
-        <v>0.03961713424184629</v>
+        <v>0.04176269304849514</v>
       </c>
       <c r="T7">
-        <v>0.03961713424184629</v>
+        <v>0.04176269304849514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H8">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>11247.80804574208</v>
+        <v>12028.18094530416</v>
       </c>
       <c r="R8">
-        <v>11247.80804574208</v>
+        <v>108253.6285077374</v>
       </c>
       <c r="S8">
-        <v>0.04217012432181758</v>
+        <v>0.04401942550783638</v>
       </c>
       <c r="T8">
-        <v>0.04217012432181758</v>
+        <v>0.04401942550783638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H9">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>7252.867560589389</v>
+        <v>7771.276623145012</v>
       </c>
       <c r="R9">
-        <v>7252.867560589389</v>
+        <v>69941.48960830511</v>
       </c>
       <c r="S9">
-        <v>0.02719234943163128</v>
+        <v>0.02844047108776444</v>
       </c>
       <c r="T9">
-        <v>0.02719234943163128</v>
+        <v>0.02844047108776445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H10">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J10">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>5623.717346931593</v>
+        <v>6061.401578757931</v>
       </c>
       <c r="R10">
-        <v>5623.717346931593</v>
+        <v>54552.61420882137</v>
       </c>
       <c r="S10">
-        <v>0.02108436227809231</v>
+        <v>0.0221828567829605</v>
       </c>
       <c r="T10">
-        <v>0.02108436227809231</v>
+        <v>0.0221828567829605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H11">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J11">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>3717.828780121345</v>
+        <v>4163.780650140197</v>
       </c>
       <c r="R11">
-        <v>3717.828780121345</v>
+        <v>37474.02585126177</v>
       </c>
       <c r="S11">
-        <v>0.01393883156854717</v>
+        <v>0.01523815055603839</v>
       </c>
       <c r="T11">
-        <v>0.01393883156854717</v>
+        <v>0.01523815055603839</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H12">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>49.82277490388031</v>
+        <v>63.41481979077867</v>
       </c>
       <c r="R12">
-        <v>49.82277490388031</v>
+        <v>570.733378117008</v>
       </c>
       <c r="S12">
-        <v>0.0001867948495573699</v>
+        <v>0.000232078645022617</v>
       </c>
       <c r="T12">
-        <v>0.0001867948495573699</v>
+        <v>0.000232078645022617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H13">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>53.03343242670272</v>
+        <v>66.84156916393201</v>
       </c>
       <c r="R13">
-        <v>53.03343242670272</v>
+        <v>601.574122475388</v>
       </c>
       <c r="S13">
-        <v>0.0001988322017544901</v>
+        <v>0.0002446194888502482</v>
       </c>
       <c r="T13">
-        <v>0.0001988322017544901</v>
+        <v>0.0002446194888502482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H14">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I14">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J14">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>34.19728182683122</v>
+        <v>43.18560938350267</v>
       </c>
       <c r="R14">
-        <v>34.19728182683122</v>
+        <v>388.670484451524</v>
       </c>
       <c r="S14">
-        <v>0.0001282119698559065</v>
+        <v>0.0001580459858321116</v>
       </c>
       <c r="T14">
-        <v>0.0001282119698559065</v>
+        <v>0.0001580459858321116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H15">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I15">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J15">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>26.51583603600658</v>
+        <v>33.68369620471067</v>
       </c>
       <c r="R15">
-        <v>26.51583603600658</v>
+        <v>303.153265842396</v>
       </c>
       <c r="S15">
-        <v>9.941280092867698E-05</v>
+        <v>0.000123271919723715</v>
       </c>
       <c r="T15">
-        <v>9.941280092867698E-05</v>
+        <v>0.000123271919723715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H16">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I16">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J16">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>17.52956847972308</v>
+        <v>23.13846404334667</v>
       </c>
       <c r="R16">
-        <v>17.52956847972308</v>
+        <v>208.24617639012</v>
       </c>
       <c r="S16">
-        <v>6.572161252143475E-05</v>
+        <v>8.467962852849262E-05</v>
       </c>
       <c r="T16">
-        <v>6.572161252143475E-05</v>
+        <v>8.467962852849262E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H17">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>67.94375802304077</v>
+        <v>69.581195430344</v>
       </c>
       <c r="R17">
-        <v>67.94375802304077</v>
+        <v>626.230758873096</v>
       </c>
       <c r="S17">
-        <v>0.0002547337855581344</v>
+        <v>0.0002546456744307633</v>
       </c>
       <c r="T17">
-        <v>0.0002547337855581344</v>
+        <v>0.0002546456744307633</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H18">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I18">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J18">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>72.3221600338953</v>
+        <v>73.341157511934</v>
       </c>
       <c r="R18">
-        <v>72.3221600338953</v>
+        <v>660.0704176074059</v>
       </c>
       <c r="S18">
-        <v>0.0002711492290274535</v>
+        <v>0.000268405973807325</v>
       </c>
       <c r="T18">
-        <v>0.0002711492290274535</v>
+        <v>0.000268405973807325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H19">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I19">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J19">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>46.63513515597045</v>
+        <v>47.384922581282</v>
       </c>
       <c r="R19">
-        <v>46.63513515597045</v>
+        <v>426.464303231538</v>
       </c>
       <c r="S19">
-        <v>0.0001748437952794288</v>
+        <v>0.0001734141745328218</v>
       </c>
       <c r="T19">
-        <v>0.0001748437952794288</v>
+        <v>0.0001734141745328219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H20">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I20">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J20">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>36.15987971133146</v>
+        <v>36.959055567278</v>
       </c>
       <c r="R20">
-        <v>36.15987971133146</v>
+        <v>332.631500105502</v>
       </c>
       <c r="S20">
-        <v>0.0001355701143447291</v>
+        <v>0.0001352587228926693</v>
       </c>
       <c r="T20">
-        <v>0.0001355701143447291</v>
+        <v>0.0001352587228926693</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H21">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I21">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J21">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>23.90522730482979</v>
+        <v>25.38841857266</v>
       </c>
       <c r="R21">
-        <v>23.90522730482979</v>
+        <v>228.49576715394</v>
       </c>
       <c r="S21">
-        <v>8.962514325336458E-05</v>
+        <v>9.291376686158725E-05</v>
       </c>
       <c r="T21">
-        <v>8.962514325336458E-05</v>
+        <v>9.291376686158725E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H22">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I22">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J22">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>2630.059635951556</v>
+        <v>2789.179375295695</v>
       </c>
       <c r="R22">
-        <v>2630.059635951556</v>
+        <v>25102.61437766126</v>
       </c>
       <c r="S22">
-        <v>0.009860582734949592</v>
+        <v>0.01020753464693724</v>
       </c>
       <c r="T22">
-        <v>0.009860582734949592</v>
+        <v>0.01020753464693724</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H23">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I23">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J23">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>2799.544791524089</v>
+        <v>2939.898382421165</v>
       </c>
       <c r="R23">
-        <v>2799.544791524089</v>
+        <v>26459.08544179048</v>
       </c>
       <c r="S23">
-        <v>0.01049601410541132</v>
+        <v>0.0107591196402911</v>
       </c>
       <c r="T23">
-        <v>0.01049601410541132</v>
+        <v>0.0107591196402911</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H24">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I24">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J24">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>1805.216404857524</v>
+        <v>1899.436305258684</v>
       </c>
       <c r="R24">
-        <v>1805.216404857524</v>
+        <v>17094.92674732815</v>
       </c>
       <c r="S24">
-        <v>0.006768092050561302</v>
+        <v>0.006951349944469953</v>
       </c>
       <c r="T24">
-        <v>0.006768092050561302</v>
+        <v>0.006951349944469954</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H25">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I25">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J25">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>1399.725932695476</v>
+        <v>1481.512855321027</v>
       </c>
       <c r="R25">
-        <v>1399.725932695476</v>
+        <v>13333.61569788924</v>
       </c>
       <c r="S25">
-        <v>0.005247832854027517</v>
+        <v>0.005421879257575205</v>
       </c>
       <c r="T25">
-        <v>0.005247832854027517</v>
+        <v>0.005421879257575205</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H26">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I26">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J26">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>925.3561364880479</v>
+        <v>1017.701018447239</v>
       </c>
       <c r="R26">
-        <v>925.3561364880479</v>
+        <v>9159.309166025148</v>
       </c>
       <c r="S26">
-        <v>0.003469332260913711</v>
+        <v>0.003724471254173889</v>
       </c>
       <c r="T26">
-        <v>0.003469332260913711</v>
+        <v>0.003724471254173889</v>
       </c>
     </row>
   </sheetData>
